--- a/data/income_statement/2digits/size/13_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/13_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>13-Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>13-Manufacture of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1148 +841,1298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>21320238.68552</v>
+        <v>19975612.33939</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>28745803.63129</v>
+        <v>27518328.21105</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>39399005.7212</v>
+        <v>38120757.77154</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>44278452.52705</v>
+        <v>43002071.37054001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>47125552.75382</v>
+        <v>45331208.07750999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>56073710.30579</v>
+        <v>54067641.70973</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>59135179.15404001</v>
+        <v>60933056.62512</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>72796506.56727999</v>
+        <v>69647195.36587001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>98605467.63088</v>
+        <v>95073477.78513001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>106217317.14957</v>
+        <v>103923184.98566</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>123902455.37948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>122496393.67002</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>151537759.773</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>14678561.07869</v>
+        <v>13569329.78891</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>20924731.47099</v>
+        <v>19902973.71719</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>28608362.13028</v>
+        <v>27559400.03126</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>32935756.46102</v>
+        <v>31827266.1687</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>34449584.19476</v>
+        <v>32856180.40855</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>42300271.82415</v>
+        <v>40378605.88182</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>45259413.55633</v>
+        <v>45838161.63814</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>54655947.1539</v>
+        <v>51969400.94127</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>74593137.54302999</v>
+        <v>71663839.01714</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>77190316.39535001</v>
+        <v>75100258.08694001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>92045233.24095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>90861610.41164999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>113053206.89</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6324697.16363</v>
+        <v>6122585.295809999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7532831.140229999</v>
+        <v>7353528.24719</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10341341.21857</v>
+        <v>10139019.27743</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10936222.4327</v>
+        <v>10801764.32877</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>12230378.22106</v>
+        <v>12048981.02726</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>13210784.78374</v>
+        <v>13147596.47141</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13059890.08551</v>
+        <v>14257490.1747</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>17115283.00754</v>
+        <v>16705738.21814</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>22642877.74936</v>
+        <v>22127563.55613</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>26880155.01746</v>
+        <v>26733476.77392</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>29934288.64939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>29749566.40882</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>35890959.783</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>316980.4432</v>
+        <v>283697.25467</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>288241.02007</v>
+        <v>261826.24667</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>449302.37235</v>
+        <v>422338.46285</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>406473.63333</v>
+        <v>373040.87307</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>445590.338</v>
+        <v>426046.6417</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>562653.6979</v>
+        <v>541439.3565</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>815875.5122</v>
+        <v>837404.81228</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1025276.40584</v>
+        <v>972056.20646</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1369452.33849</v>
+        <v>1282075.21186</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2146845.73676</v>
+        <v>2089450.1248</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1922933.48914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1885216.84955</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2593593.1</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>586903.23654</v>
+        <v>558080.99038</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>660522.8295499999</v>
+        <v>638763.3084</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>794927.0554300001</v>
+        <v>774931.60086</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>872137.57816</v>
+        <v>844058.00818</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>772165.0137799999</v>
+        <v>742114.74424</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1123592.94998</v>
+        <v>1091230.00661</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1176108.02333</v>
+        <v>1229609.42213</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1414448.36563</v>
+        <v>1337056.87048</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2163630.51291</v>
+        <v>2088666.54367</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2362753.02477</v>
+        <v>2305254.58663</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2315951.00467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2277310.1868</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2912166.887</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>289520.30385</v>
+        <v>269519.85392</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>316028.4513</v>
+        <v>301716.04549</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>456019.94186</v>
+        <v>442741.39898</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>517052.1015100001</v>
+        <v>498400.90988</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>521025.56484</v>
+        <v>497828.92165</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>757789.86726</v>
+        <v>729126.73174</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>833055.21676</v>
+        <v>841903.46163</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>999719.5104400001</v>
+        <v>937014.4710199999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1613446.88832</v>
+        <v>1556013.87835</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1362486.33378</v>
+        <v>1323820.18256</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1520074.63269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1494008.96044</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1860635.364</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>199868.46775</v>
+        <v>196368.04047</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>232244.12736</v>
+        <v>228660.12165</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>228073.91289</v>
+        <v>224209.73051</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>220015.66894</v>
+        <v>213739.17243</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>146218.0009</v>
+        <v>142077.6056</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>146298.74569</v>
+        <v>142522.18921</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>135022.19911</v>
+        <v>150069.88222</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>182072.92176</v>
+        <v>178077.96888</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>214817.97404</v>
+        <v>207344.93242</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>272213.66638</v>
+        <v>268037.44042</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>305406.70076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>298713.25643</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>476625.487</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>97514.46494000001</v>
+        <v>92193.09599000002</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>112250.25089</v>
+        <v>108387.14126</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>110833.20068</v>
+        <v>107980.47137</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>135069.80771</v>
+        <v>131917.92587</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>104921.44804</v>
+        <v>102208.21699</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>219504.33703</v>
+        <v>219581.08566</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>208030.60746</v>
+        <v>237636.07828</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>232655.93343</v>
+        <v>221964.43058</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>335365.65055</v>
+        <v>325307.7329</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>728053.02461</v>
+        <v>713396.9636499999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>490469.67122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>484587.9699300001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>574906.036</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>20733335.44898</v>
+        <v>19417531.34901</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>28085280.80174</v>
+        <v>26879564.90265</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>38604078.66577</v>
+        <v>37345826.17068</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>43406314.94889</v>
+        <v>42158013.36236</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>46353387.74004</v>
+        <v>44589093.33327001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>54950117.35580999</v>
+        <v>52976411.70311999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>57959071.13071001</v>
+        <v>59703447.20299</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>71382058.20164999</v>
+        <v>68310138.49539</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>96441837.11797</v>
+        <v>92984811.24146</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>103854564.1248</v>
+        <v>101617930.39903</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>121586504.37481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>120219083.48322</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>148625592.886</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>17675994.74965</v>
+        <v>16522450.07942</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>24511593.64393</v>
+        <v>23456188.1375</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>32923628.08747</v>
+        <v>31884686.24605</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>38215742.15467</v>
+        <v>37138975.42985</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>39732743.14171</v>
+        <v>38246034.50661</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>47366822.69491</v>
+        <v>45664817.17432</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>48736210.62478999</v>
+        <v>49867626.72538</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>59872280.45602001</v>
+        <v>57252770.67174</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>79948468.28375</v>
+        <v>77083809.21029001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>82842890.36423999</v>
+        <v>81038677.84207</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>101417730.92749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>100344281.94853</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>116200139.111</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>15463714.87267</v>
+        <v>14506258.83413</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>21069334.81099</v>
+        <v>20318404.70259</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>28699975.07778</v>
+        <v>27934106.61384</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>33233443.12628</v>
+        <v>32421667.65302</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>34502070.89476001</v>
+        <v>33196723.12737</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>41451303.48963001</v>
+        <v>40096782.19287001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>42738698.85662001</v>
+        <v>43817227.70622999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>51783087.27069</v>
+        <v>49686547.08426999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>68899709.54358999</v>
+        <v>66623010.75975</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>72935009.36103</v>
+        <v>71443612.35699999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>89116044.43674001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>88293542.31896999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>101929542.466</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1569928.794</v>
+        <v>1461565.84002</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2555922.31486</v>
+        <v>2403094.28312</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3093654.71162</v>
+        <v>2992333.698</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3627222.648060001</v>
+        <v>3478999.10749</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3892780.97308</v>
+        <v>3721583.54832</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4280343.49579</v>
+        <v>4080280.69135</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4457080.00795</v>
+        <v>4560786.153229999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6138962.5884</v>
+        <v>5870544.15242</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>8463988.74148</v>
+        <v>8152933.824950001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7265031.34066</v>
+        <v>7046898.057659999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9159833.73948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8990301.340709999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>10721798.074</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>487975.56563</v>
+        <v>416201.43888</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>648326.8040499999</v>
+        <v>507195.77996</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>799832.6681099999</v>
+        <v>643465.5637899999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1052515.56831</v>
+        <v>942094.32967</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1015947.3365</v>
+        <v>889045.51627</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1105719.53664</v>
+        <v>963697.70334</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1110449.48321</v>
+        <v>1031337.20181</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1426899.11165</v>
+        <v>1184874.08183</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1893131.51903</v>
+        <v>1625716.50194</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1675500.16761</v>
+        <v>1593858.8916</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1909818.25154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1827424.1013</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2106650.556</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>154375.51735</v>
+        <v>138423.96639</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>238009.71403</v>
+        <v>227493.37183</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>330165.62996</v>
+        <v>314780.37042</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>302560.81202</v>
+        <v>296214.33967</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>321943.93737</v>
+        <v>438682.31465</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>529456.17285</v>
+        <v>524056.58676</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>429982.27701</v>
+        <v>458275.66411</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>523331.48528</v>
+        <v>510805.35322</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>691638.47965</v>
+        <v>682148.1236500001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>967349.49494</v>
+        <v>954308.53581</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1232034.49973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1233014.18755</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1442148.015</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3057340.69933</v>
+        <v>2895081.26959</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3573687.157809999</v>
+        <v>3423376.765149999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5680450.5783</v>
+        <v>5461139.92463</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5190572.79422</v>
+        <v>5019037.932510001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6620644.598329999</v>
+        <v>6343058.82666</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7583294.6609</v>
+        <v>7311594.5288</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9222860.50592</v>
+        <v>9835820.477609999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>11509777.74563</v>
+        <v>11057367.82365</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>16493368.83422</v>
+        <v>15901002.03117</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>21011673.76056</v>
+        <v>20579252.55696</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>20168773.44732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19874801.53469</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>32425453.775</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1509820.95466</v>
+        <v>1346226.90083</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1788748.90194</v>
+        <v>1665934.55306</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2266182.9568</v>
+        <v>2129217.98466</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2688866.03292</v>
+        <v>2547394.42819</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2836377.66061</v>
+        <v>2711694.12655</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3443271.26337</v>
+        <v>3314416.5943</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3590529.15776</v>
+        <v>3855372.64557</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4684578.081270001</v>
+        <v>4442960.52874</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>5656257.21615</v>
+        <v>5372902.81089</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5828486.12781</v>
+        <v>5700433.66415</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7016623.49203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6854634.21732</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7796719.388</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>33011.40048</v>
+        <v>31194.26476</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>35168.08923</v>
+        <v>33652.82825</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>36551.6011</v>
+        <v>35841.7995</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>33618.08083000001</v>
+        <v>32872.8769</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>45114.09387999999</v>
+        <v>43573.68425</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>44573.96368000001</v>
+        <v>44405.5146</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>49572.03842</v>
+        <v>53107.38336</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>71108.67587000001</v>
+        <v>69632.36215999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>91725.98035</v>
+        <v>90966.62672999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>113333.30174</v>
+        <v>110798.16254</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>149411.65069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>148263.33534</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>163981.511</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>689199.65384</v>
+        <v>642115.94554</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>832074.87352</v>
+        <v>798431.56449</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1083614.7388</v>
+        <v>1049879.93276</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1317609.77768</v>
+        <v>1273431.6386</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1357680.28955</v>
+        <v>1312185.81843</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1661962.8866</v>
+        <v>1624043.52166</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1713927.10372</v>
+        <v>1859238.0321</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2154237.85197</v>
+        <v>2072724.91706</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2730365.71357</v>
+        <v>2636391.90043</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2991936.18533</v>
+        <v>2940246.70821</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3568481.97309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3507467.90933</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4041378.527</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>787609.9003399999</v>
+        <v>672916.6905300001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>921505.9391900001</v>
+        <v>833850.1603199999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1146016.6169</v>
+        <v>1043496.2524</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1337638.17441</v>
+        <v>1241089.91269</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1433583.27718</v>
+        <v>1355934.62387</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1736734.41309</v>
+        <v>1645967.55804</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1827030.01562</v>
+        <v>1943027.23011</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2459231.55343</v>
+        <v>2300603.24952</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2834165.52223</v>
+        <v>2645544.28373</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2723216.64074</v>
+        <v>2649388.7934</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3298729.86825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3198902.97265</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3591359.35</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1547519.74467</v>
+        <v>1548854.36876</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1784938.25587</v>
+        <v>1757442.21209</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3414267.6215</v>
+        <v>3331921.93997</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2501706.7613</v>
+        <v>2471643.50432</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3784266.93772</v>
+        <v>3631364.70011</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4140023.39753</v>
+        <v>3997177.9345</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5632331.34816</v>
+        <v>5980447.83204</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6825199.664360001</v>
+        <v>6614407.29491</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>10837111.61807</v>
+        <v>10528099.22028</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>15183187.63275</v>
+        <v>14878818.89281</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13152149.95529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13020167.31737</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>24628734.387</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1709855.08413</v>
+        <v>1513774.53896</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1910793.67363</v>
+        <v>1578583.35986</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2648745.47531</v>
+        <v>2477819.85617</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2804921.20457</v>
+        <v>2582713.85697</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3443629.76285</v>
+        <v>3145589.00624</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4473305.72498</v>
+        <v>4203364.97756</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7840027.81879</v>
+        <v>7954374.85538</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7981329.858620001</v>
+        <v>7532962.816029999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9921108.85833</v>
+        <v>9510208.22656</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>27060484.50328</v>
+        <v>26197947.59065</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14541160.60298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14044973.58659</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>22690869.643</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>48049.60853</v>
+        <v>46805.18761</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>22993.58945</v>
+        <v>22463.33809</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>33974.08104</v>
+        <v>32781.50902</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>100964.36664</v>
+        <v>100379.22563</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>163190.42098</v>
+        <v>121817.20684</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>99177.12059000001</v>
+        <v>85657.62405</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>136910.8194</v>
+        <v>119333.29426</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>193299.6716</v>
+        <v>170613.58071</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>188257.20413</v>
+        <v>178150.03848</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1045887.48949</v>
+        <v>1021355.6596</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>402681.46943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>344892.96546</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>570673.88</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>48263.58459999999</v>
+        <v>48182.13609</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>85285.72592999999</v>
+        <v>14213.06963</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>15012.72798</v>
+        <v>14250.43113</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>80651.07622</v>
+        <v>75010.97719999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>34668.09346</v>
+        <v>14580.98852</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>68194.75809999999</v>
+        <v>52795.33853</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>85657.55362999999</v>
+        <v>90506.12999000002</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>137418.62433</v>
+        <v>123616.63143</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>190642.8939</v>
+        <v>184380.74623</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>268981.66618</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>299283.6647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>285227.0095</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>403713.349</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>99070.04236000002</v>
+        <v>76756.99724</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>126943.81647</v>
+        <v>89995.83842</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>137176.824</v>
+        <v>121587.68627</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>206654.84333</v>
+        <v>186624.56332</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>202661.59548</v>
+        <v>184785.6303</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>327732.33336</v>
+        <v>311295.39139</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>402804.4861</v>
+        <v>463021.84818</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>408535.7894</v>
+        <v>391010.70167</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>576065.74998</v>
+        <v>553583.67393</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>913299.4259299999</v>
+        <v>882952.0640799999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>908244.74338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>894046.1231299998</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1032485.526</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3421.14341</v>
+        <v>3367.26612</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>38022.96176999999</v>
+        <v>37342.1148</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1663.10868</v>
+        <v>850.1171100000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1925.12067</v>
+        <v>1924.30021</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4540.07388</v>
+        <v>4372.58642</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1923.32616</v>
+        <v>1917.44093</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2189.34012</v>
+        <v>12580.50761</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3825.88278</v>
+        <v>3761.15052</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>16474.02584</v>
+        <v>16392.01355</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>12770.24178</v>
+        <v>12767.98345</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>10480.40341</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>26425.582</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>55228.55224</v>
+        <v>39469.75114</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>85383.76497</v>
+        <v>63728.37609000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>91124.63269999999</v>
+        <v>42967.32393999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>103121.82353</v>
+        <v>12656.98011</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>67216.38984</v>
+        <v>26614.81479</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>60569.43114</v>
+        <v>26741.08586</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>77977.86549000001</v>
+        <v>26328.62713</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>93502.24488</v>
+        <v>45112.30572</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>89977.48611</v>
+        <v>52514.68506</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>67854.20802000001</v>
+        <v>67599.23733000002</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>46873.27967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>46422.41722</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>64047.006</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>46892.3213</v>
+        <v>44269.21397</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>41546.55557000001</v>
+        <v>41194.01258</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>63906.05488</v>
+        <v>63474.1753</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>247252.51801</v>
+        <v>245219.37781</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>84364.37074000001</v>
+        <v>38432.2327</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>129620.43168</v>
+        <v>114955.80475</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>205754.25153</v>
+        <v>200138.43064</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>89244.72991999998</v>
+        <v>72606.15612999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>50353.76663000001</v>
+        <v>48133.58305</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>185812.23153</v>
+        <v>124875.45015</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>539355.8112699999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>515411.1733499999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>162366.179</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1196391.74138</v>
+        <v>1063030.5165</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1234206.96537</v>
+        <v>1104969.73864</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1959557.41981</v>
+        <v>1894916.75577</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1709494.25594</v>
+        <v>1669824.0424</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2465474.524439999</v>
+        <v>2360491.69028</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3254332.07008</v>
+        <v>3107021.93652</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6287724.578799999</v>
+        <v>6445029.73614</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6262983.35299</v>
+        <v>6014895.061430001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7994358.63565</v>
+        <v>7705020.215860001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23413692.50051</v>
+        <v>22734687.78894</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11289787.60204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10933682.11177</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>19206407.889</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>15644.49942</v>
+        <v>13265.8932</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>19964.56645</v>
+        <v>17253.62424</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>18788.02834</v>
+        <v>18492.18239</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>18961.66935</v>
+        <v>18244.1672</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>106798.981</v>
+        <v>105184.54689</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>172076.81423</v>
+        <v>176362.73786</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>146718.02877</v>
+        <v>170661.64814</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>227039.65267</v>
+        <v>225755.41137</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>243612.19085</v>
+        <v>241378.10858</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>404894.87189</v>
+        <v>402047.46014</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>478683.35389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>474017.75105</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>328245.037</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>545.0546400000001</v>
+        <v>544.38464</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>490.70397</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>259.89796</v>
+        <v>258.85664</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>604.10519</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>196348.53625</v>
+        <v>178083.19245</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>256445.72765</v>
+        <v>187423.24737</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>327542.59788</v>
+        <v>288499.67524</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>335846.12666</v>
+        <v>272780.81887</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>314715.31303</v>
+        <v>289309.3095</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>359500.85886</v>
+        <v>326439.03689</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>491271.8001</v>
+        <v>423755.53844</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>564989.2060799999</v>
+        <v>485101.11308</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>571107.00728</v>
+        <v>530396.30518</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>747291.8679500001</v>
+        <v>682680.2807799999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>565166.17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>540189.52651</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>896505.1949999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1386474.8261</v>
+        <v>1238927.02647</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1332700.55207</v>
+        <v>1212023.9876</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2548039.26532</v>
+        <v>2398996.35457</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1817042.86496</v>
+        <v>1767211.54216</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3773922.55783</v>
+        <v>3606700.76521</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3526688.04833</v>
+        <v>3367234.69494</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7463152.19313</v>
+        <v>7369940.551360001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7576414.4662</v>
+        <v>7145264.03891</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10061750.08925</v>
+        <v>9648946.57982</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>24045407.85842</v>
+        <v>23177304.19772</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12144300.24349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11637334.51969</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>21890420.911</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>16996.02568</v>
+        <v>16756.58337</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>12839.72673</v>
+        <v>12626.29461</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>26644.42555</v>
+        <v>25142.38264</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>22422.94582</v>
+        <v>21265.76671</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16990.86216</v>
+        <v>17265.44219</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>20480.60607</v>
+        <v>19832.31926</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>29145.70787</v>
+        <v>43502.82496</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>38897.41540000001</v>
+        <v>37655.87311</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>40989.45156</v>
+        <v>39670.30098000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>36810.56961</v>
+        <v>35584.48785</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>42016.90009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41332.28737999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>59928.324</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>147840.04988</v>
+        <v>118779.29519</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>129102.81732</v>
+        <v>119373.255</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>122431.79183</v>
+        <v>116989.23617</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>155276.46828</v>
+        <v>148529.37743</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>112644.20201</v>
+        <v>93666.80468</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>115101.39839</v>
+        <v>110962.27426</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>282913.02197</v>
+        <v>275785.57087</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>341836.0622700001</v>
+        <v>327879.13917</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>355966.27549</v>
+        <v>345682.40714</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>357042.34266</v>
+        <v>287426.78992</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>380281.4518200001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>370762.4758200001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>423133.446</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>30361.96334</v>
+        <v>28849.18685</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>41148.06725</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>44102.40904000001</v>
+        <v>23168.95975</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>261039.75714</v>
+        <v>261038.59714</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>34602.75705000001</v>
+        <v>34164.82279000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>13465.00935</v>
+        <v>13208.8971</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>20437.48216</v>
+        <v>20501.8704</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10971.87925</v>
+        <v>10971.60091</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6115.45186</v>
+        <v>3149.78874</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>109635.49193</v>
+        <v>109635.1257</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>91830.06958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>88715.5848</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>29310.051</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1082522.00655</v>
+        <v>978049.17296</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1053122.32059</v>
+        <v>950741.8872</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2232618.44207</v>
+        <v>2130310.49376</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1273039.14349</v>
+        <v>1241305.68181</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2963885.8577</v>
+        <v>2817947.48892</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3101525.83331</v>
+        <v>2940468.47729</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6869641.5382</v>
+        <v>6742112.54355</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6803240.61886</v>
+        <v>6401662.34893</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9255837.387200002</v>
+        <v>8865462.26007</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>22801416.74664</v>
+        <v>22076471.87262</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11068134.88383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10589963.43866</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>20893741.856</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>20232.99238</v>
+        <v>16570.97904</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>19550.38743</v>
+        <v>17673.64645</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>21364.65471</v>
+        <v>20887.49083</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>16620.94206</v>
+        <v>14650.27742</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>156672.653</v>
+        <v>154526.90913</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>182408.90019</v>
+        <v>190903.86834</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>157367.15414</v>
+        <v>182577.09433</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>236948.57703</v>
+        <v>235132.83624</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>268943.78084</v>
+        <v>265883.17582</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>521104.07937</v>
+        <v>511669.53886</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>401035.76043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>398750.53666</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>320716.605</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0.00322</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1311.37723</v>
+        <v>600.23815</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>34.205</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>88521.78826999999</v>
+        <v>79921.80906</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>76937.23275</v>
+        <v>70460.83709</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>100877.54212</v>
+        <v>82497.79142000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>88434.54882</v>
+        <v>80212.78229999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>489126.22591</v>
+        <v>489129.2975</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>93702.45840999999</v>
+        <v>91855.01608</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>103647.28879</v>
+        <v>105460.64725</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>144519.91017</v>
+        <v>131962.23733</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>132586.36507</v>
+        <v>128498.40892</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>219398.62821</v>
+        <v>156516.38277</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>160966.97274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>147775.99137</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>163590.629</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>959182.0235499999</v>
+        <v>808590.95921</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>771286.5098700001</v>
+        <v>669095.3710299999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1730876.06368</v>
+        <v>1621202.7152</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1220464.25811</v>
+        <v>1159984.74853</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2367962.54658</v>
+        <v>2267230.33019</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2382372.46604</v>
+        <v>2243632.56075</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3769257.90613</v>
+        <v>4071013.32858</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4611077.77808</v>
+        <v>4345568.24016</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5970626.0461</v>
+        <v>5713332.62565</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12888332.41116</v>
+        <v>12287419.01718</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8925372.04796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8604849.799290001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11941480.171</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>671885.9155999999</v>
+        <v>583704.34714</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>546584.66341</v>
+        <v>498062.41193</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1174528.77257</v>
+        <v>1106972.33542</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>930568.99159</v>
+        <v>876016.93302</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1527247.54025</v>
+        <v>1454738.61166</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1836436.48894</v>
+        <v>1710145.04554</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2678219.16876</v>
+        <v>2621721.47702</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3106752.80552</v>
+        <v>2926584.68162</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4105173.59271</v>
+        <v>3898499.56367</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8492834.31583</v>
+        <v>8286818.63366</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6850224.487160001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6615327.69865</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7892225.162</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>287296.10795</v>
+        <v>224886.61207</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>224701.84646</v>
+        <v>171032.9591</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>556347.29111</v>
+        <v>514230.37978</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>289895.26652</v>
+        <v>283967.81551</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>840715.00633</v>
+        <v>812491.71853</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>545935.9771</v>
+        <v>533487.51521</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1091038.73737</v>
+        <v>1449291.85156</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1504324.97256</v>
+        <v>1418983.55854</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1865452.45339</v>
+        <v>1814833.06198</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4395498.09533</v>
+        <v>4000600.383520001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2075147.5608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1989522.10064</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4049255.009</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>911717.9791500001</v>
+        <v>1015110.92204</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1591744.86756</v>
+        <v>1454906.21332</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1784097.76781</v>
+        <v>1789542.72637</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2269120.8428</v>
+        <v>2127161.0706</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1086011.59616</v>
+        <v>903022.61095</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2704268.60814</v>
+        <v>2589675.65637</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2239949.06769</v>
+        <v>2493868.80748</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2619037.2787</v>
+        <v>2656537.83187</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4725844.341050001</v>
+        <v>4676028.24137</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5309931.866450001</v>
+        <v>5612043.268560001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6623638.26682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6822956.584980001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>13487702.948</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>403315.54584</v>
+        <v>264232.67721</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>349875.33307</v>
+        <v>226830.99696</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>619046.84491</v>
+        <v>489363.0434199999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>561769.57655</v>
+        <v>431755.16078</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>559009.25531</v>
+        <v>481590.41452</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>726352.0381</v>
+        <v>671870.6544100001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>868925.06456</v>
+        <v>663378.63804</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1406945.10436</v>
+        <v>1006744.43961</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1380758.58068</v>
+        <v>1106000.35942</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1255529.84681</v>
+        <v>1169553.72106</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1279420.77271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1206250.39296</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1354126.555</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4782.0029</v>
+        <v>4458.69071</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4232.53532</v>
+        <v>4073.82305</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>11144.53941</v>
+        <v>11142.93656</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>18543.66254</v>
+        <v>14748.82518</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7717.320769999999</v>
+        <v>4161.10604</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7335.7943</v>
+        <v>6768.110890000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>16389.6816</v>
+        <v>14924.05476</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>49138.40849</v>
+        <v>48905.04051</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>10517.34397</v>
+        <v>10475.53483</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8288.248950000001</v>
+        <v>8276.59347</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>15022.69676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9930.958809999998</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>15527.565</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>398533.54294</v>
+        <v>259773.9865</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>345642.79775</v>
+        <v>222757.17391</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>607902.3055</v>
+        <v>478220.10686</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>543225.9140099999</v>
+        <v>417006.3356</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>551291.9345399999</v>
+        <v>477429.3084799999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>719016.2437999999</v>
+        <v>665102.5435199999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>852535.38296</v>
+        <v>648454.58328</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1357806.69587</v>
+        <v>957839.3990999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1370241.23671</v>
+        <v>1095524.82459</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1247241.59786</v>
+        <v>1161277.12759</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1264398.07595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1196319.43415</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1338598.99</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>314893.46147</v>
+        <v>242103.16591</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>300996.4946799999</v>
+        <v>230647.7459</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>723055.7670499999</v>
+        <v>596221.51211</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>411116.89881</v>
+        <v>360778.5637</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>356637.32344</v>
+        <v>322804.52589</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>700174.7025499999</v>
+        <v>621161.8658199999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>675638.9286500001</v>
+        <v>375341.0526299999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1113784.33874</v>
+        <v>758647.7677099999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>726196.24856</v>
+        <v>624500.4425</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1170334.5665</v>
+        <v>1138803.07875</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>700814.52301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>615662.21545</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1102438.208</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>144097.5151</v>
+        <v>111686.05808</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>80418.87751000001</v>
+        <v>59506.58634999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>110280.8933</v>
+        <v>97363.1296</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>124018.22722</v>
+        <v>113701.08182</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>146473.33498</v>
+        <v>136083.13348</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>119736.18344</v>
+        <v>109157.09946</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>123646.86039</v>
+        <v>97604.40493999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>130935.33822</v>
+        <v>120309.05069</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>183782.1589</v>
+        <v>177733.39579</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>250934.42465</v>
+        <v>248313.46919</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>256489.73607</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>199684.38829</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>448605.576</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>18670.90682</v>
+        <v>10121.53552</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>21556.91181</v>
+        <v>8258.37012</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>9407.465799999998</v>
+        <v>8616.344379999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>50384.48484999999</v>
+        <v>49521.79562</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>18862.07691</v>
+        <v>17524.18123</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>18485.28791</v>
+        <v>15367.78011</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>22945.69497</v>
+        <v>22374.11974</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>18192.59062</v>
+        <v>16887.04862</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>22246.13223</v>
+        <v>22078.35063</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>69883.88574000001</v>
+        <v>69613.7164</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>49306.74239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>38889.68117</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>28562.989</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>152125.03955</v>
+        <v>120295.57231</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>199020.70536</v>
+        <v>162882.78943</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>603367.40795</v>
+        <v>490242.03813</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>236714.18674</v>
+        <v>197555.68626</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>191301.91155</v>
+        <v>169197.21118</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>561953.2312</v>
+        <v>496636.98625</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>529046.37329</v>
+        <v>255362.52795</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>964656.4099000001</v>
+        <v>621451.6684000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>520167.95743</v>
+        <v>424688.69608</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>849516.2561100002</v>
+        <v>820875.89316</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>395018.04455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>377088.14599</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>625269.643</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1000140.06352</v>
+        <v>1037240.43334</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1640623.70595</v>
+        <v>1451089.46438</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1680088.84567</v>
+        <v>1682684.25768</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2419773.52054</v>
+        <v>2198137.66768</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1288383.52803</v>
+        <v>1061808.49958</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2730445.94369</v>
+        <v>2640384.44496</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2433235.2036</v>
+        <v>2781906.39289</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2912198.04432</v>
+        <v>2904634.50377</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5380406.67317</v>
+        <v>5157528.15829</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5395127.14676</v>
+        <v>5642793.91087</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7202244.51652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>7413544.76249</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>13739391.295</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>153447.14023</v>
+        <v>143437.91997</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>220464.75657</v>
+        <v>211979.28893</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>332142.4280900001</v>
+        <v>318432.74095</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>343546.05852</v>
+        <v>323055.18844</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>341817.63804</v>
+        <v>318167.70273</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>438452.39611</v>
+        <v>417849.07161</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>448686.44354</v>
+        <v>473493.38685</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>437678.98075</v>
+        <v>416010.87215</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>606690.13274</v>
+        <v>580595.99625</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>719445.1657799999</v>
+        <v>700500.76815</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>670987.6208399999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>655411.6480599999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1246643.757</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>846692.9232900001</v>
+        <v>893802.5133699999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1420158.94938</v>
+        <v>1239110.17545</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1347946.41758</v>
+        <v>1364251.51673</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2076227.46202</v>
+        <v>1875082.47924</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>946565.8899900001</v>
+        <v>743640.7968499999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2291993.54758</v>
+        <v>2222535.37335</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1984548.76006</v>
+        <v>2308413.00604</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2474519.06357</v>
+        <v>2488623.63162</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4773716.54043</v>
+        <v>4576932.162040001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4675681.98098</v>
+        <v>4942293.14272</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6531256.89568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6758133.114429999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>12492747.538</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>617</v>
+        <v>505</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>508</v>
+        <v>412</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>560</v>
+        <v>455</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>601</v>
+        <v>497</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>689</v>
+        <v>543</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>780</v>
+        <v>619</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>388</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>